--- a/backend/uploads/GRAND_TOTAL_consolidated.xlsx
+++ b/backend/uploads/GRAND_TOTAL_consolidated.xlsx
@@ -397,238 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>SHEET</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ARTICLE / STYLE</v>
-      </c>
-      <c r="C1" t="str">
-        <v>PO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>COLOR</v>
-      </c>
-      <c r="E1" t="str">
-        <v>COUNT</v>
-      </c>
-      <c r="F1" t="str">
-        <v>TOTAL</v>
-      </c>
-      <c r="G1" t="str">
-        <v>NET</v>
-      </c>
-      <c r="H1" t="str">
-        <v>GROSS</v>
-      </c>
-      <c r="I1" t="str">
-        <v>VOLUME (CBM)</v>
-      </c>
-      <c r="J1" t="str">
-        <v>CARTON DIMENSION (CM)</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>4440666(29.5)</v>
-      </c>
-      <c r="B2" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C2">
-        <v>4440666</v>
-      </c>
-      <c r="D2" t="str">
-        <v>BE33</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>25.925</v>
-      </c>
-      <c r="H2">
-        <v>31.925</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>4440675(28.5)</v>
-      </c>
-      <c r="B3" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C3">
-        <v>4440675</v>
-      </c>
-      <c r="D3" t="str">
-        <v>BE33</v>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3">
-        <v>87</v>
-      </c>
-      <c r="G3">
-        <v>123.32499999999999</v>
-      </c>
-      <c r="H3">
-        <v>148.525</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>4440667(29.5)</v>
-      </c>
-      <c r="B4" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C4">
-        <v>4440667</v>
-      </c>
-      <c r="D4" t="str">
-        <v>BE33</v>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4">
-        <v>360</v>
-      </c>
-      <c r="G4">
-        <v>517.35</v>
-      </c>
-      <c r="H4">
-        <v>625.35</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4440676(28.5)</v>
-      </c>
-      <c r="B5" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C5">
-        <v>4440676</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BK11</v>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5">
-        <v>86</v>
-      </c>
-      <c r="G5">
-        <v>128.25</v>
-      </c>
-      <c r="H5">
-        <v>154.65</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>4440668(29.5)</v>
-      </c>
-      <c r="B6" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C6">
-        <v>4440668</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BK11</v>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>4440669(29.5)</v>
-      </c>
-      <c r="B7" t="str">
-        <v>LQU1855</v>
-      </c>
-      <c r="C7">
-        <v>4440669</v>
-      </c>
-      <c r="D7" t="str">
-        <v>BK11</v>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7">
-        <v>477</v>
-      </c>
-      <c r="G7">
-        <v>681.2250000000001</v>
-      </c>
-      <c r="H7">
-        <v>825.225</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/uploads/GRAND_TOTAL_consolidated.xlsx
+++ b/backend/uploads/GRAND_TOTAL_consolidated.xlsx
@@ -397,13 +397,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>SHEET</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ARTICLE / STYLE</v>
+      </c>
+      <c r="C1" t="str">
+        <v>PO</v>
+      </c>
+      <c r="D1" t="str">
+        <v>COLOR</v>
+      </c>
+      <c r="E1" t="str">
+        <v>COUNT</v>
+      </c>
+      <c r="F1" t="str">
+        <v>TOTAL</v>
+      </c>
+      <c r="G1" t="str">
+        <v>NET</v>
+      </c>
+      <c r="H1" t="str">
+        <v>GROSS</v>
+      </c>
+      <c r="I1" t="str">
+        <v>VOLUME (CBM)</v>
+      </c>
+      <c r="J1" t="str">
+        <v>CARTON DIMENSION (CM)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B2" t="str">
+        <v>C3697470</v>
+      </c>
+      <c r="C2" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D2" t="str">
+        <v>DK FATIGUE</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B3" t="str">
+        <v>C3697470</v>
+      </c>
+      <c r="C3" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D3" t="str">
+        <v>HAZELNUT</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B4" t="str">
+        <v>C3697470</v>
+      </c>
+      <c r="C4" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D4" t="str">
+        <v>DK HORIZON</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B5" t="str">
+        <v>C3697470</v>
+      </c>
+      <c r="C5" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D5" t="str">
+        <v>CARBON</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B6" t="str">
+        <v>C3697472</v>
+      </c>
+      <c r="C6" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D6" t="str">
+        <v>DK LAVA</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B7" t="str">
+        <v>C3697472</v>
+      </c>
+      <c r="C7" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D7" t="str">
+        <v>JUTE</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B8" t="str">
+        <v>C3697472</v>
+      </c>
+      <c r="C8" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D8" t="str">
+        <v>WHISTLER BLUE</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>PKL</v>
+      </c>
+      <c r="B9" t="str">
+        <v>C3697472</v>
+      </c>
+      <c r="C9" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D9" t="str">
+        <v>CARBON</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <v>60x40x35 * 3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>75992</v>
+      </c>
+      <c r="B10">
+        <v>13602394</v>
+      </c>
+      <c r="C10" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D10" t="str">
+        <v>DK FATIGUE 043-32-06</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1.374</v>
+      </c>
+      <c r="H10">
+        <v>1.974</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <v>40x30x20 * 1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>75993</v>
+      </c>
+      <c r="B11">
+        <v>13602394</v>
+      </c>
+      <c r="C11" t="str">
+        <v>DRN#</v>
+      </c>
+      <c r="D11" t="str">
+        <v>DK FATIGUE 043-32-06</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1.374</v>
+      </c>
+      <c r="H11">
+        <v>1.974</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <v>40x30x20 * 1</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/uploads/GRAND_TOTAL_consolidated.xlsx
+++ b/backend/uploads/GRAND_TOTAL_consolidated.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -436,327 +436,4935 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B2" t="str">
-        <v>C3697470</v>
+        <v>52928</v>
       </c>
       <c r="C2" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D2" t="str">
-        <v>DK FATIGUE</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J2" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B3" t="str">
-        <v>C3697470</v>
+        <v>52928</v>
       </c>
       <c r="C3" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D3" t="str">
-        <v>HAZELNUT</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J3" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B4" t="str">
-        <v>C3697470</v>
+        <v>52928</v>
       </c>
       <c r="C4" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D4" t="str">
-        <v>DK HORIZON</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J4" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B5" t="str">
-        <v>C3697470</v>
+        <v>52928</v>
       </c>
       <c r="C5" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D5" t="str">
-        <v>CARBON</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J5" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B6" t="str">
-        <v>C3697472</v>
+        <v>52928</v>
       </c>
       <c r="C6" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D6" t="str">
-        <v>DK LAVA</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J6" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B7" t="str">
-        <v>C3697472</v>
+        <v>52928</v>
       </c>
       <c r="C7" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D7" t="str">
-        <v>JUTE</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J7" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B8" t="str">
-        <v>C3697472</v>
+        <v>52928</v>
       </c>
       <c r="C8" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D8" t="str">
-        <v>WHISTLER BLUE</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J8" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>PKL</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="B9" t="str">
-        <v>C3697472</v>
+        <v>52928</v>
       </c>
       <c r="C9" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D9" t="str">
-        <v>CARBON</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>2794</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J9" t="str">
-        <v>60x40x35 * 3</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>75992</v>
-      </c>
-      <c r="B10">
-        <v>13602394</v>
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B10" t="str">
+        <v>52928</v>
       </c>
       <c r="C10" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D10" t="str">
-        <v>DK FATIGUE 043-32-06</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>2794</v>
       </c>
       <c r="G10">
-        <v>1.374</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H10">
-        <v>1.974</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J10" t="str">
-        <v>40x30x20 * 1</v>
+        <v>60x40x30 * 43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>75993</v>
-      </c>
-      <c r="B11">
-        <v>13602394</v>
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B11" t="str">
+        <v>52928</v>
       </c>
       <c r="C11" t="str">
-        <v>DRN#</v>
+        <v>PSE-PA004206</v>
       </c>
       <c r="D11" t="str">
-        <v>DK FATIGUE 043-32-06</v>
+        <v>Hydrogen White</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>2794</v>
       </c>
       <c r="G11">
-        <v>1.374</v>
+        <v>552.9300862068966</v>
       </c>
       <c r="H11">
-        <v>1.974</v>
+        <v>608.8300862068965</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.096</v>
       </c>
       <c r="J11" t="str">
-        <v>40x30x20 * 1</v>
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B12" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C12" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>2794</v>
+      </c>
+      <c r="G12">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H12">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I12">
+        <v>3.096</v>
+      </c>
+      <c r="J12" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B13" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C13" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E13">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>2794</v>
+      </c>
+      <c r="G13">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H13">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I13">
+        <v>3.096</v>
+      </c>
+      <c r="J13" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B14" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C14" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>2794</v>
+      </c>
+      <c r="G14">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H14">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I14">
+        <v>3.096</v>
+      </c>
+      <c r="J14" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B15" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C15" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>2794</v>
+      </c>
+      <c r="G15">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H15">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I15">
+        <v>3.096</v>
+      </c>
+      <c r="J15" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B16" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C16" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>2794</v>
+      </c>
+      <c r="G16">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H16">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I16">
+        <v>3.096</v>
+      </c>
+      <c r="J16" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B17" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C17" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>2794</v>
+      </c>
+      <c r="G17">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H17">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I17">
+        <v>3.096</v>
+      </c>
+      <c r="J17" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B18" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C18" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E18">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>2794</v>
+      </c>
+      <c r="G18">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H18">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I18">
+        <v>3.096</v>
+      </c>
+      <c r="J18" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B19" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C19" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E19">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>2794</v>
+      </c>
+      <c r="G19">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H19">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I19">
+        <v>3.096</v>
+      </c>
+      <c r="J19" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B20" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C20" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E20">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>2794</v>
+      </c>
+      <c r="G20">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H20">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I20">
+        <v>3.096</v>
+      </c>
+      <c r="J20" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B21" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C21" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>2794</v>
+      </c>
+      <c r="G21">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H21">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I21">
+        <v>3.096</v>
+      </c>
+      <c r="J21" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B22" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C22" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E22">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>2794</v>
+      </c>
+      <c r="G22">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H22">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I22">
+        <v>3.096</v>
+      </c>
+      <c r="J22" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B23" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C23" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E23">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>2794</v>
+      </c>
+      <c r="G23">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H23">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I23">
+        <v>3.096</v>
+      </c>
+      <c r="J23" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B24" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C24" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E24">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>2794</v>
+      </c>
+      <c r="G24">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H24">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I24">
+        <v>3.096</v>
+      </c>
+      <c r="J24" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B25" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C25" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E25">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>2794</v>
+      </c>
+      <c r="G25">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H25">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I25">
+        <v>3.096</v>
+      </c>
+      <c r="J25" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B26" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C26" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E26">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>2794</v>
+      </c>
+      <c r="G26">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H26">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I26">
+        <v>3.096</v>
+      </c>
+      <c r="J26" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B27" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C27" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>2794</v>
+      </c>
+      <c r="G27">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H27">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I27">
+        <v>3.096</v>
+      </c>
+      <c r="J27" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B28" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C28" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E28">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>2794</v>
+      </c>
+      <c r="G28">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H28">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I28">
+        <v>3.096</v>
+      </c>
+      <c r="J28" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B29" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C29" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>2794</v>
+      </c>
+      <c r="G29">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H29">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I29">
+        <v>3.096</v>
+      </c>
+      <c r="J29" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B30" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C30" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E30">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>2794</v>
+      </c>
+      <c r="G30">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H30">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I30">
+        <v>3.096</v>
+      </c>
+      <c r="J30" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B31" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C31" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E31">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>2794</v>
+      </c>
+      <c r="G31">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H31">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I31">
+        <v>3.096</v>
+      </c>
+      <c r="J31" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B32" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C32" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>2794</v>
+      </c>
+      <c r="G32">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H32">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I32">
+        <v>3.096</v>
+      </c>
+      <c r="J32" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B33" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C33" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>2794</v>
+      </c>
+      <c r="G33">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H33">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I33">
+        <v>3.096</v>
+      </c>
+      <c r="J33" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B34" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C34" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>2794</v>
+      </c>
+      <c r="G34">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H34">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I34">
+        <v>3.096</v>
+      </c>
+      <c r="J34" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B35" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C35" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E35">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>2794</v>
+      </c>
+      <c r="G35">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H35">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I35">
+        <v>3.096</v>
+      </c>
+      <c r="J35" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B36" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C36" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>2794</v>
+      </c>
+      <c r="G36">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H36">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I36">
+        <v>3.096</v>
+      </c>
+      <c r="J36" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="B37" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C37" t="str">
+        <v>PSE-PA004206</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>2794</v>
+      </c>
+      <c r="G37">
+        <v>552.9300862068966</v>
+      </c>
+      <c r="H37">
+        <v>608.8300862068965</v>
+      </c>
+      <c r="I37">
+        <v>3.096</v>
+      </c>
+      <c r="J37" t="str">
+        <v>60x40x30 * 43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B38" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C38" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>149</v>
+      </c>
+      <c r="G38">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H38">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I38">
+        <v>0.216</v>
+      </c>
+      <c r="J38" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B39" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C39" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>149</v>
+      </c>
+      <c r="G39">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H39">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I39">
+        <v>0.216</v>
+      </c>
+      <c r="J39" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B40" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C40" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>149</v>
+      </c>
+      <c r="G40">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H40">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I40">
+        <v>0.216</v>
+      </c>
+      <c r="J40" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B41" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C41" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>149</v>
+      </c>
+      <c r="G41">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H41">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I41">
+        <v>0.216</v>
+      </c>
+      <c r="J41" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B42" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C42" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>149</v>
+      </c>
+      <c r="G42">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H42">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I42">
+        <v>0.216</v>
+      </c>
+      <c r="J42" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B43" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C43" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>149</v>
+      </c>
+      <c r="G43">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H43">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I43">
+        <v>0.216</v>
+      </c>
+      <c r="J43" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B44" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C44" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>149</v>
+      </c>
+      <c r="G44">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H44">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I44">
+        <v>0.216</v>
+      </c>
+      <c r="J44" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B45" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C45" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>149</v>
+      </c>
+      <c r="G45">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H45">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I45">
+        <v>0.216</v>
+      </c>
+      <c r="J45" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B46" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C46" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>149</v>
+      </c>
+      <c r="G46">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H46">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I46">
+        <v>0.216</v>
+      </c>
+      <c r="J46" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B47" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C47" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>149</v>
+      </c>
+      <c r="G47">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H47">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I47">
+        <v>0.216</v>
+      </c>
+      <c r="J47" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B48" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C48" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>149</v>
+      </c>
+      <c r="G48">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H48">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I48">
+        <v>0.216</v>
+      </c>
+      <c r="J48" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B49" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C49" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>149</v>
+      </c>
+      <c r="G49">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H49">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I49">
+        <v>0.216</v>
+      </c>
+      <c r="J49" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B50" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C50" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>149</v>
+      </c>
+      <c r="G50">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H50">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I50">
+        <v>0.216</v>
+      </c>
+      <c r="J50" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B51" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C51" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>149</v>
+      </c>
+      <c r="G51">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H51">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I51">
+        <v>0.216</v>
+      </c>
+      <c r="J51" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B52" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C52" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>149</v>
+      </c>
+      <c r="G52">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H52">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I52">
+        <v>0.216</v>
+      </c>
+      <c r="J52" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B53" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C53" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>149</v>
+      </c>
+      <c r="G53">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H53">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I53">
+        <v>0.216</v>
+      </c>
+      <c r="J53" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B54" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C54" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>149</v>
+      </c>
+      <c r="G54">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H54">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I54">
+        <v>0.216</v>
+      </c>
+      <c r="J54" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B55" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C55" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>149</v>
+      </c>
+      <c r="G55">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H55">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I55">
+        <v>0.216</v>
+      </c>
+      <c r="J55" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B56" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C56" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>149</v>
+      </c>
+      <c r="G56">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H56">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I56">
+        <v>0.216</v>
+      </c>
+      <c r="J56" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B57" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C57" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>149</v>
+      </c>
+      <c r="G57">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H57">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I57">
+        <v>0.216</v>
+      </c>
+      <c r="J57" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B58" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C58" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>149</v>
+      </c>
+      <c r="G58">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H58">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I58">
+        <v>0.216</v>
+      </c>
+      <c r="J58" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B59" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C59" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>149</v>
+      </c>
+      <c r="G59">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H59">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I59">
+        <v>0.216</v>
+      </c>
+      <c r="J59" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B60" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C60" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>149</v>
+      </c>
+      <c r="G60">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H60">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I60">
+        <v>0.216</v>
+      </c>
+      <c r="J60" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B61" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C61" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>149</v>
+      </c>
+      <c r="G61">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H61">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I61">
+        <v>0.216</v>
+      </c>
+      <c r="J61" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B62" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C62" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>149</v>
+      </c>
+      <c r="G62">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H62">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I62">
+        <v>0.216</v>
+      </c>
+      <c r="J62" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B63" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C63" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>149</v>
+      </c>
+      <c r="G63">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H63">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I63">
+        <v>0.216</v>
+      </c>
+      <c r="J63" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B64" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C64" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>149</v>
+      </c>
+      <c r="G64">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H64">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I64">
+        <v>0.216</v>
+      </c>
+      <c r="J64" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B65" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C65" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>149</v>
+      </c>
+      <c r="G65">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H65">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I65">
+        <v>0.216</v>
+      </c>
+      <c r="J65" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B66" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C66" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>149</v>
+      </c>
+      <c r="G66">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H66">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I66">
+        <v>0.216</v>
+      </c>
+      <c r="J66" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B67" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C67" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>149</v>
+      </c>
+      <c r="G67">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H67">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I67">
+        <v>0.216</v>
+      </c>
+      <c r="J67" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B68" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C68" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>149</v>
+      </c>
+      <c r="G68">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H68">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I68">
+        <v>0.216</v>
+      </c>
+      <c r="J68" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B69" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C69" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>149</v>
+      </c>
+      <c r="G69">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H69">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I69">
+        <v>0.216</v>
+      </c>
+      <c r="J69" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B70" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C70" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>149</v>
+      </c>
+      <c r="G70">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H70">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I70">
+        <v>0.216</v>
+      </c>
+      <c r="J70" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B71" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C71" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>149</v>
+      </c>
+      <c r="G71">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H71">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I71">
+        <v>0.216</v>
+      </c>
+      <c r="J71" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B72" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C72" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>149</v>
+      </c>
+      <c r="G72">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H72">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I72">
+        <v>0.216</v>
+      </c>
+      <c r="J72" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B73" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C73" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>149</v>
+      </c>
+      <c r="G73">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H73">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I73">
+        <v>0.216</v>
+      </c>
+      <c r="J73" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="B74" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C74" t="str">
+        <v>PSE-PA004358</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>149</v>
+      </c>
+      <c r="G74">
+        <v>29.935000000000002</v>
+      </c>
+      <c r="H74">
+        <v>33.535000000000004</v>
+      </c>
+      <c r="I74">
+        <v>0.216</v>
+      </c>
+      <c r="J74" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B75" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C75" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>114</v>
+      </c>
+      <c r="G75">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H75">
+        <v>25.78</v>
+      </c>
+      <c r="I75">
+        <v>0.216</v>
+      </c>
+      <c r="J75" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B76" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C76" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>114</v>
+      </c>
+      <c r="G76">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H76">
+        <v>25.78</v>
+      </c>
+      <c r="I76">
+        <v>0.216</v>
+      </c>
+      <c r="J76" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B77" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C77" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>114</v>
+      </c>
+      <c r="G77">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H77">
+        <v>25.78</v>
+      </c>
+      <c r="I77">
+        <v>0.216</v>
+      </c>
+      <c r="J77" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B78" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C78" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>114</v>
+      </c>
+      <c r="G78">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H78">
+        <v>25.78</v>
+      </c>
+      <c r="I78">
+        <v>0.216</v>
+      </c>
+      <c r="J78" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B79" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C79" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>114</v>
+      </c>
+      <c r="G79">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H79">
+        <v>25.78</v>
+      </c>
+      <c r="I79">
+        <v>0.216</v>
+      </c>
+      <c r="J79" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B80" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C80" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>114</v>
+      </c>
+      <c r="G80">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H80">
+        <v>25.78</v>
+      </c>
+      <c r="I80">
+        <v>0.216</v>
+      </c>
+      <c r="J80" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B81" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C81" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>114</v>
+      </c>
+      <c r="G81">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H81">
+        <v>25.78</v>
+      </c>
+      <c r="I81">
+        <v>0.216</v>
+      </c>
+      <c r="J81" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B82" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C82" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>114</v>
+      </c>
+      <c r="G82">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H82">
+        <v>25.78</v>
+      </c>
+      <c r="I82">
+        <v>0.216</v>
+      </c>
+      <c r="J82" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B83" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C83" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>114</v>
+      </c>
+      <c r="G83">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H83">
+        <v>25.78</v>
+      </c>
+      <c r="I83">
+        <v>0.216</v>
+      </c>
+      <c r="J83" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B84" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C84" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>114</v>
+      </c>
+      <c r="G84">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H84">
+        <v>25.78</v>
+      </c>
+      <c r="I84">
+        <v>0.216</v>
+      </c>
+      <c r="J84" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B85" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C85" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>114</v>
+      </c>
+      <c r="G85">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H85">
+        <v>25.78</v>
+      </c>
+      <c r="I85">
+        <v>0.216</v>
+      </c>
+      <c r="J85" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B86" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C86" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>114</v>
+      </c>
+      <c r="G86">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H86">
+        <v>25.78</v>
+      </c>
+      <c r="I86">
+        <v>0.216</v>
+      </c>
+      <c r="J86" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B87" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C87" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>114</v>
+      </c>
+      <c r="G87">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H87">
+        <v>25.78</v>
+      </c>
+      <c r="I87">
+        <v>0.216</v>
+      </c>
+      <c r="J87" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B88" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C88" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>114</v>
+      </c>
+      <c r="G88">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H88">
+        <v>25.78</v>
+      </c>
+      <c r="I88">
+        <v>0.216</v>
+      </c>
+      <c r="J88" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B89" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C89" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>114</v>
+      </c>
+      <c r="G89">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H89">
+        <v>25.78</v>
+      </c>
+      <c r="I89">
+        <v>0.216</v>
+      </c>
+      <c r="J89" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B90" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C90" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>114</v>
+      </c>
+      <c r="G90">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H90">
+        <v>25.78</v>
+      </c>
+      <c r="I90">
+        <v>0.216</v>
+      </c>
+      <c r="J90" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B91" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C91" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>114</v>
+      </c>
+      <c r="G91">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H91">
+        <v>25.78</v>
+      </c>
+      <c r="I91">
+        <v>0.216</v>
+      </c>
+      <c r="J91" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B92" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C92" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>114</v>
+      </c>
+      <c r="G92">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H92">
+        <v>25.78</v>
+      </c>
+      <c r="I92">
+        <v>0.216</v>
+      </c>
+      <c r="J92" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B93" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C93" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>114</v>
+      </c>
+      <c r="G93">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H93">
+        <v>25.78</v>
+      </c>
+      <c r="I93">
+        <v>0.216</v>
+      </c>
+      <c r="J93" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B94" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C94" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>114</v>
+      </c>
+      <c r="G94">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H94">
+        <v>25.78</v>
+      </c>
+      <c r="I94">
+        <v>0.216</v>
+      </c>
+      <c r="J94" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B95" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C95" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>114</v>
+      </c>
+      <c r="G95">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H95">
+        <v>25.78</v>
+      </c>
+      <c r="I95">
+        <v>0.216</v>
+      </c>
+      <c r="J95" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B96" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C96" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>114</v>
+      </c>
+      <c r="G96">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H96">
+        <v>25.78</v>
+      </c>
+      <c r="I96">
+        <v>0.216</v>
+      </c>
+      <c r="J96" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B97" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C97" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>114</v>
+      </c>
+      <c r="G97">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H97">
+        <v>25.78</v>
+      </c>
+      <c r="I97">
+        <v>0.216</v>
+      </c>
+      <c r="J97" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B98" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C98" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>114</v>
+      </c>
+      <c r="G98">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H98">
+        <v>25.78</v>
+      </c>
+      <c r="I98">
+        <v>0.216</v>
+      </c>
+      <c r="J98" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B99" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C99" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>114</v>
+      </c>
+      <c r="G99">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H99">
+        <v>25.78</v>
+      </c>
+      <c r="I99">
+        <v>0.216</v>
+      </c>
+      <c r="J99" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B100" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C100" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>114</v>
+      </c>
+      <c r="G100">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H100">
+        <v>25.78</v>
+      </c>
+      <c r="I100">
+        <v>0.216</v>
+      </c>
+      <c r="J100" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B101" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C101" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>114</v>
+      </c>
+      <c r="G101">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H101">
+        <v>25.78</v>
+      </c>
+      <c r="I101">
+        <v>0.216</v>
+      </c>
+      <c r="J101" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B102" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C102" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>114</v>
+      </c>
+      <c r="G102">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H102">
+        <v>25.78</v>
+      </c>
+      <c r="I102">
+        <v>0.216</v>
+      </c>
+      <c r="J102" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B103" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C103" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>114</v>
+      </c>
+      <c r="G103">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H103">
+        <v>25.78</v>
+      </c>
+      <c r="I103">
+        <v>0.216</v>
+      </c>
+      <c r="J103" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B104" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C104" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>114</v>
+      </c>
+      <c r="G104">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H104">
+        <v>25.78</v>
+      </c>
+      <c r="I104">
+        <v>0.216</v>
+      </c>
+      <c r="J104" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B105" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C105" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>114</v>
+      </c>
+      <c r="G105">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H105">
+        <v>25.78</v>
+      </c>
+      <c r="I105">
+        <v>0.216</v>
+      </c>
+      <c r="J105" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B106" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C106" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>114</v>
+      </c>
+      <c r="G106">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H106">
+        <v>25.78</v>
+      </c>
+      <c r="I106">
+        <v>0.216</v>
+      </c>
+      <c r="J106" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B107" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C107" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>114</v>
+      </c>
+      <c r="G107">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H107">
+        <v>25.78</v>
+      </c>
+      <c r="I107">
+        <v>0.216</v>
+      </c>
+      <c r="J107" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B108" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C108" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>114</v>
+      </c>
+      <c r="G108">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H108">
+        <v>25.78</v>
+      </c>
+      <c r="I108">
+        <v>0.216</v>
+      </c>
+      <c r="J108" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B109" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C109" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>114</v>
+      </c>
+      <c r="G109">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H109">
+        <v>25.78</v>
+      </c>
+      <c r="I109">
+        <v>0.216</v>
+      </c>
+      <c r="J109" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B110" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C110" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>114</v>
+      </c>
+      <c r="G110">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H110">
+        <v>25.78</v>
+      </c>
+      <c r="I110">
+        <v>0.216</v>
+      </c>
+      <c r="J110" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="B111" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C111" t="str">
+        <v>PSE-PA004359</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>114</v>
+      </c>
+      <c r="G111">
+        <v>21.880000000000003</v>
+      </c>
+      <c r="H111">
+        <v>25.78</v>
+      </c>
+      <c r="I111">
+        <v>0.216</v>
+      </c>
+      <c r="J111" t="str">
+        <v>60x40x30 * 3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B112" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C112" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>689</v>
+      </c>
+      <c r="G112">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H112">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I112">
+        <v>1.008</v>
+      </c>
+      <c r="J112" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B113" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C113" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E113">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>689</v>
+      </c>
+      <c r="G113">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H113">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I113">
+        <v>1.008</v>
+      </c>
+      <c r="J113" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B114" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C114" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E114">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>689</v>
+      </c>
+      <c r="G114">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H114">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I114">
+        <v>1.008</v>
+      </c>
+      <c r="J114" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B115" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C115" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E115">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>689</v>
+      </c>
+      <c r="G115">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H115">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I115">
+        <v>1.008</v>
+      </c>
+      <c r="J115" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B116" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C116" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E116">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>689</v>
+      </c>
+      <c r="G116">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H116">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I116">
+        <v>1.008</v>
+      </c>
+      <c r="J116" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B117" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C117" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E117">
+        <v>14</v>
+      </c>
+      <c r="F117">
+        <v>689</v>
+      </c>
+      <c r="G117">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H117">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I117">
+        <v>1.008</v>
+      </c>
+      <c r="J117" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B118" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C118" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E118">
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>689</v>
+      </c>
+      <c r="G118">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H118">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I118">
+        <v>1.008</v>
+      </c>
+      <c r="J118" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B119" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C119" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E119">
+        <v>14</v>
+      </c>
+      <c r="F119">
+        <v>689</v>
+      </c>
+      <c r="G119">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H119">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I119">
+        <v>1.008</v>
+      </c>
+      <c r="J119" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B120" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C120" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>689</v>
+      </c>
+      <c r="G120">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H120">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I120">
+        <v>1.008</v>
+      </c>
+      <c r="J120" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B121" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C121" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E121">
+        <v>14</v>
+      </c>
+      <c r="F121">
+        <v>689</v>
+      </c>
+      <c r="G121">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H121">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I121">
+        <v>1.008</v>
+      </c>
+      <c r="J121" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B122" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C122" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E122">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>689</v>
+      </c>
+      <c r="G122">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H122">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I122">
+        <v>1.008</v>
+      </c>
+      <c r="J122" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B123" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C123" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E123">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>689</v>
+      </c>
+      <c r="G123">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H123">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I123">
+        <v>1.008</v>
+      </c>
+      <c r="J123" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B124" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C124" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E124">
+        <v>14</v>
+      </c>
+      <c r="F124">
+        <v>689</v>
+      </c>
+      <c r="G124">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H124">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I124">
+        <v>1.008</v>
+      </c>
+      <c r="J124" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B125" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C125" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E125">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>689</v>
+      </c>
+      <c r="G125">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H125">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I125">
+        <v>1.008</v>
+      </c>
+      <c r="J125" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B126" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C126" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>689</v>
+      </c>
+      <c r="G126">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H126">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I126">
+        <v>1.008</v>
+      </c>
+      <c r="J126" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B127" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C127" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Apatite Navy</v>
+      </c>
+      <c r="E127">
+        <v>14</v>
+      </c>
+      <c r="F127">
+        <v>689</v>
+      </c>
+      <c r="G127">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H127">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I127">
+        <v>1.008</v>
+      </c>
+      <c r="J127" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B128" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C128" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>689</v>
+      </c>
+      <c r="G128">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H128">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I128">
+        <v>1.008</v>
+      </c>
+      <c r="J128" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B129" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C129" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>689</v>
+      </c>
+      <c r="G129">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H129">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I129">
+        <v>1.008</v>
+      </c>
+      <c r="J129" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B130" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C130" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130">
+        <v>689</v>
+      </c>
+      <c r="G130">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H130">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I130">
+        <v>1.008</v>
+      </c>
+      <c r="J130" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B131" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C131" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>689</v>
+      </c>
+      <c r="G131">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H131">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I131">
+        <v>1.008</v>
+      </c>
+      <c r="J131" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B132" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C132" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E132">
+        <v>14</v>
+      </c>
+      <c r="F132">
+        <v>689</v>
+      </c>
+      <c r="G132">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H132">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I132">
+        <v>1.008</v>
+      </c>
+      <c r="J132" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B133" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C133" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E133">
+        <v>14</v>
+      </c>
+      <c r="F133">
+        <v>689</v>
+      </c>
+      <c r="G133">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H133">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I133">
+        <v>1.008</v>
+      </c>
+      <c r="J133" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B134" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C134" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E134">
+        <v>14</v>
+      </c>
+      <c r="F134">
+        <v>689</v>
+      </c>
+      <c r="G134">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H134">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I134">
+        <v>1.008</v>
+      </c>
+      <c r="J134" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B135" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C135" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>689</v>
+      </c>
+      <c r="G135">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H135">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I135">
+        <v>1.008</v>
+      </c>
+      <c r="J135" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B136" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C136" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E136">
+        <v>14</v>
+      </c>
+      <c r="F136">
+        <v>689</v>
+      </c>
+      <c r="G136">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H136">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I136">
+        <v>1.008</v>
+      </c>
+      <c r="J136" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B137" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C137" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E137">
+        <v>14</v>
+      </c>
+      <c r="F137">
+        <v>689</v>
+      </c>
+      <c r="G137">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H137">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I137">
+        <v>1.008</v>
+      </c>
+      <c r="J137" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B138" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C138" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E138">
+        <v>14</v>
+      </c>
+      <c r="F138">
+        <v>689</v>
+      </c>
+      <c r="G138">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H138">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I138">
+        <v>1.008</v>
+      </c>
+      <c r="J138" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B139" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C139" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E139">
+        <v>14</v>
+      </c>
+      <c r="F139">
+        <v>689</v>
+      </c>
+      <c r="G139">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H139">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I139">
+        <v>1.008</v>
+      </c>
+      <c r="J139" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B140" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C140" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
+      </c>
+      <c r="F140">
+        <v>689</v>
+      </c>
+      <c r="G140">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H140">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I140">
+        <v>1.008</v>
+      </c>
+      <c r="J140" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B141" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C141" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Hydrogen White</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
+      </c>
+      <c r="F141">
+        <v>689</v>
+      </c>
+      <c r="G141">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H141">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I141">
+        <v>1.008</v>
+      </c>
+      <c r="J141" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B142" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C142" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
+      </c>
+      <c r="F142">
+        <v>689</v>
+      </c>
+      <c r="G142">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H142">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I142">
+        <v>1.008</v>
+      </c>
+      <c r="J142" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B143" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C143" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
+      </c>
+      <c r="F143">
+        <v>689</v>
+      </c>
+      <c r="G143">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H143">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I143">
+        <v>1.008</v>
+      </c>
+      <c r="J143" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B144" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C144" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
+      </c>
+      <c r="F144">
+        <v>689</v>
+      </c>
+      <c r="G144">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H144">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I144">
+        <v>1.008</v>
+      </c>
+      <c r="J144" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B145" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C145" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>689</v>
+      </c>
+      <c r="G145">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H145">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I145">
+        <v>1.008</v>
+      </c>
+      <c r="J145" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B146" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C146" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
+      </c>
+      <c r="F146">
+        <v>689</v>
+      </c>
+      <c r="G146">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H146">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I146">
+        <v>1.008</v>
+      </c>
+      <c r="J146" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B147" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C147" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
+      </c>
+      <c r="F147">
+        <v>689</v>
+      </c>
+      <c r="G147">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H147">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I147">
+        <v>1.008</v>
+      </c>
+      <c r="J147" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B148" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C148" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
+      </c>
+      <c r="F148">
+        <v>689</v>
+      </c>
+      <c r="G148">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H148">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I148">
+        <v>1.008</v>
+      </c>
+      <c r="J148" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B149" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C149" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>689</v>
+      </c>
+      <c r="G149">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H149">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I149">
+        <v>1.008</v>
+      </c>
+      <c r="J149" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B150" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C150" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <v>689</v>
+      </c>
+      <c r="G150">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H150">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I150">
+        <v>1.008</v>
+      </c>
+      <c r="J150" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B151" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C151" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
+      </c>
+      <c r="F151">
+        <v>689</v>
+      </c>
+      <c r="G151">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H151">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I151">
+        <v>1.008</v>
+      </c>
+      <c r="J151" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B152" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C152" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
+      </c>
+      <c r="F152">
+        <v>689</v>
+      </c>
+      <c r="G152">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H152">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I152">
+        <v>1.008</v>
+      </c>
+      <c r="J152" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B153" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C153" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
+      </c>
+      <c r="F153">
+        <v>689</v>
+      </c>
+      <c r="G153">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H153">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I153">
+        <v>1.008</v>
+      </c>
+      <c r="J153" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B154" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C154" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E154">
+        <v>14</v>
+      </c>
+      <c r="F154">
+        <v>689</v>
+      </c>
+      <c r="G154">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H154">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I154">
+        <v>1.008</v>
+      </c>
+      <c r="J154" t="str">
+        <v>60x40x30 * 14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="B155" t="str">
+        <v>52928</v>
+      </c>
+      <c r="C155" t="str">
+        <v>PUS-PA001914</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Sylvanite Grey</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
+      </c>
+      <c r="F155">
+        <v>689</v>
+      </c>
+      <c r="G155">
+        <v>134.36898467432948</v>
+      </c>
+      <c r="H155">
+        <v>152.56898467432953</v>
+      </c>
+      <c r="I155">
+        <v>1.008</v>
+      </c>
+      <c r="J155" t="str">
+        <v>60x40x30 * 14</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J155"/>
   </ignoredErrors>
 </worksheet>
 </file>